--- a/notebooks/mimic_icu/input_label_groups_decisions.xlsx
+++ b/notebooks/mimic_icu/input_label_groups_decisions.xlsx
@@ -1309,23 +1309,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1337,12 +1320,12 @@
   <dimension ref="A1:Q476"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C480" activeCellId="0" sqref="C480"/>
+      <selection pane="bottomLeft" activeCell="K308" activeCellId="0" sqref="K308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>

--- a/notebooks/mimic_icu/input_label_groups_decisions.xlsx
+++ b/notebooks/mimic_icu/input_label_groups_decisions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="409">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -337,9 +337,15 @@
     <t xml:space="preserve">Dexmedetomidine (Precedex)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dextran</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dextran 40</t>
   </si>
   <si>
+    <t xml:space="preserve">Dextrose</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dextrose 10%</t>
   </si>
   <si>
@@ -520,6 +526,9 @@
     <t xml:space="preserve">Gentamicin</t>
   </si>
   <si>
+    <t xml:space="preserve">Glucerna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Glucerna (1/2)</t>
   </si>
   <si>
@@ -547,6 +556,9 @@
     <t xml:space="preserve">Heparin Sodium (Prophylaxis)</t>
   </si>
   <si>
+    <t xml:space="preserve">Hetastarch (Hespan)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hetastarch (Hespan) 6%</t>
   </si>
   <si>
@@ -568,6 +580,9 @@
     <t xml:space="preserve">Imipenem/Cilastatin</t>
   </si>
   <si>
+    <t xml:space="preserve">Impact</t>
+  </si>
+  <si>
     <t xml:space="preserve">Impact (1/2)</t>
   </si>
   <si>
@@ -622,6 +637,9 @@
     <t xml:space="preserve">Isoniazid</t>
   </si>
   <si>
+    <t xml:space="preserve">Isosource</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isosource 1.5 (1/2)</t>
   </si>
   <si>
@@ -808,6 +826,9 @@
     <t xml:space="preserve">Norepinephrine</t>
   </si>
   <si>
+    <t xml:space="preserve">NovaSource Renal</t>
+  </si>
+  <si>
     <t xml:space="preserve">NovaSource Renal (1/2)</t>
   </si>
   <si>
@@ -943,6 +964,9 @@
     <t xml:space="preserve">Pentobarbital</t>
   </si>
   <si>
+    <t xml:space="preserve">Peptamen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peptamen 1.5 (1/2)</t>
   </si>
   <si>
@@ -1015,6 +1039,9 @@
     <t xml:space="preserve">Profilnine</t>
   </si>
   <si>
+    <t xml:space="preserve">Promote</t>
+  </si>
+  <si>
     <t xml:space="preserve">Promote (Full)</t>
   </si>
   <si>
@@ -1027,6 +1054,9 @@
     <t xml:space="preserve">Protamine sulfate</t>
   </si>
   <si>
+    <t xml:space="preserve">Pulmocare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pulmocare (1/2)</t>
   </si>
   <si>
@@ -1048,6 +1078,9 @@
     <t xml:space="preserve">Ranitidine (Prophylaxis)</t>
   </si>
   <si>
+    <t xml:space="preserve">Replete</t>
+  </si>
+  <si>
     <t xml:space="preserve">Replete (1/2)</t>
   </si>
   <si>
@@ -1108,9 +1141,15 @@
     <t xml:space="preserve">Vanilla Lactose Free Scandi Shake (mixed)</t>
   </si>
   <si>
+    <t xml:space="preserve">Sodium Acetate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sodium Acetate.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sodium Bicarbonate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sodium Bicarbonate 8.4%</t>
   </si>
   <si>
@@ -1144,6 +1183,9 @@
     <t xml:space="preserve">Treprostinil (Remodulin)</t>
   </si>
   <si>
+    <t xml:space="preserve">Two Cal HN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two Cal HN (1/2)</t>
   </si>
   <si>
@@ -1169,6 +1211,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vitamin K (Phytonadione)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivonex</t>
   </si>
   <si>
     <t xml:space="preserve">Vivonex (1/2)</t>
@@ -1319,13 +1364,13 @@
   </sheetPr>
   <dimension ref="A1:Q476"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K308" activeCellId="0" sqref="K308"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
@@ -1339,7 +1384,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1436,7 +1481,7 @@
         <v>0.0261390416339356</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1477,7 +1522,7 @@
         <v>0.0006284367635506</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1569,7 @@
         <v>0.0001374705420267</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1616,7 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1610,7 +1655,7 @@
         <v>0.000432050274941</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1649,7 +1694,7 @@
         <v>0.29200706991359</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1732,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1726,7 +1771,7 @@
         <v>0.0044776119402985</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,7 +1818,7 @@
         <v>0.0045168892380204</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,7 +1865,7 @@
         <v>0.0750981932443048</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1861,7 +1906,7 @@
         <v>0.164728986645719</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1953,7 @@
         <v>0.0045365278868813</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1955,7 +2000,7 @@
         <v>0.0031814611154752</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1994,7 +2039,7 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2041,7 +2086,7 @@
         <v>0.0017871170463472</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2080,7 +2125,7 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,7 +2172,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2166,7 +2211,7 @@
         <v>0.0127847604084839</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2213,7 +2258,7 @@
         <v>0.0008051846032992</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2252,7 +2297,7 @@
         <v>0.0001374705420267</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2344,7 @@
         <v>5.89159465828751E-005</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2346,7 +2391,7 @@
         <v>0.0626276512175962</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2387,7 +2432,7 @@
         <v>0.0111743912018853</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2428,7 +2473,7 @@
         <v>0.0329340141398272</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2520,7 @@
         <v>0.0269835035349568</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2514,7 +2559,7 @@
         <v>0.0008837391987431</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2553,7 +2598,7 @@
         <v>5.89159465828751E-005</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2600,7 +2645,7 @@
         <v>0.0257659073055774</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2639,7 +2684,7 @@
         <v>0.0010212097407698</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2686,7 +2731,7 @@
         <v>0.0005498821681068</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,7 +2778,7 @@
         <v>0.0056952081696779</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +2825,7 @@
         <v>0.0012961508248232</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2819,7 +2864,7 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2866,7 +2911,7 @@
         <v>0.0058915946582875</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2913,7 +2958,7 @@
         <v>0.0315789473684211</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2943,7 +2988,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2982,7 +3027,7 @@
         <v>0.0143951296150825</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3023,7 +3068,7 @@
         <v>0.0049489395129615</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3062,7 +3107,7 @@
         <v>0.0002553024351924</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -3109,7 +3154,7 @@
         <v>0.008483896307934</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3148,7 +3193,7 @@
         <v>0.0001571091908876</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3187,7 +3232,7 @@
         <v>0.0002356637863315</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3234,7 +3279,7 @@
         <v>0.0152788688138256</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3461,7 +3506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3552,7 +3597,7 @@
         <v>0.002317360565593</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3778,7 +3823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
@@ -4163,7 +4208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -4210,7 +4255,7 @@
         <v>0.0069520816967792</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4249,7 +4294,7 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4279,7 +4324,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,7 +4371,7 @@
         <v>0.0011390416339355</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4365,7 +4410,7 @@
         <v>9.81932443047918E-005</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
@@ -4415,7 +4460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4448,7 +4493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,7 +4540,7 @@
         <v>0.21516103692066</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4534,7 +4579,7 @@
         <v>0.0088373919874312</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4573,7 +4618,7 @@
         <v>0.0003731343283582</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -4620,7 +4665,7 @@
         <v>0.181402199528672</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4659,7 +4704,7 @@
         <v>0.0169481539670071</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4698,7 +4743,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4737,7 +4782,7 @@
         <v>0.0007462686567164</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,7 +4829,7 @@
         <v>0.0006284367635506</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4814,7 +4859,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4853,7 +4898,7 @@
         <v>9.81932443047918E-005</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -4900,7 +4945,7 @@
         <v>0.0347014925373134</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4939,7 +4984,7 @@
         <v>0.0031814611154752</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4978,7 +5023,7 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -5025,7 +5070,7 @@
         <v>0.132030636292223</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5064,7 +5109,7 @@
         <v>0.0062450903377847</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5103,7 +5148,7 @@
         <v>0.0002160251374705</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -5153,7 +5198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -5191,7 +5236,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5230,7 +5275,7 @@
         <v>0.025942655145326</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -5277,7 +5322,7 @@
         <v>0.0266300078554595</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -5324,7 +5369,7 @@
         <v>0.0038884524744697</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -5371,7 +5416,7 @@
         <v>0.0205420267085624</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5410,7 +5455,7 @@
         <v>0.0011586802827965</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -5457,7 +5502,7 @@
         <v>0.000471327572663</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5496,7 +5541,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
@@ -5543,7 +5588,7 @@
         <v>0.027847604084839</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5582,7 +5627,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5621,7 +5666,7 @@
         <v>0.0059308719560094</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>95</v>
       </c>
@@ -5668,7 +5713,7 @@
         <v>0.0195208169677926</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
@@ -5715,7 +5760,7 @@
         <v>0.0002356637863315</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
@@ -5762,7 +5807,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5801,7 +5846,7 @@
         <v>0.144795758051846</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5842,7 +5887,7 @@
         <v>0.0039866457187745</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
@@ -5889,7 +5934,7 @@
         <v>0.0172034564021995</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>101</v>
       </c>
@@ -5927,7 +5972,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5966,7 +6011,7 @@
         <v>0.0388845247446976</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>103</v>
       </c>
@@ -6013,7 +6058,7 @@
         <v>0.0119599371563236</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6052,7 +6097,7 @@
         <v>0.0004124116260801</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
@@ -6099,7 +6144,7 @@
         <v>0.115691280439906</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6138,7 +6183,7 @@
         <v>0.0070895522388059</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>105</v>
       </c>
@@ -6149,7 +6194,7 @@
         <v>18</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>20</v>
@@ -6185,9 +6230,9 @@
         <v>0.0003927729772191</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>17</v>
@@ -6196,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>20</v>
@@ -6232,12 +6277,12 @@
         <v>0.0231932443047918</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>20</v>
@@ -6273,12 +6318,12 @@
         <v>0.0013550667714061</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>20</v>
@@ -6314,12 +6359,12 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>20</v>
@@ -6355,12 +6400,12 @@
         <v>0.0001374705420267</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>20</v>
@@ -6396,12 +6441,12 @@
         <v>0.753260015710919</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>20</v>
@@ -6437,12 +6482,12 @@
         <v>0.100373134328358</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>29</v>
@@ -6478,7 +6523,7 @@
         <v>0.0118224666142969</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6508,12 +6553,12 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="Q120" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>23</v>
@@ -6522,7 +6567,7 @@
         <v>24</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>26</v>
@@ -6558,9 +6603,9 @@
         <v>0.0114689709347997</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>23</v>
@@ -6569,7 +6614,7 @@
         <v>24</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>28</v>
@@ -6605,7 +6650,7 @@
         <v>0.0002356637863315</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6644,7 +6689,7 @@
         <v>0.0013354281225451</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6683,9 +6728,9 @@
         <v>0.0079536527886881</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>23</v>
@@ -6694,7 +6739,7 @@
         <v>24</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>29</v>
@@ -6730,7 +6775,7 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6769,9 +6814,9 @@
         <v>0.0243126472898665</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>23</v>
@@ -6780,7 +6825,7 @@
         <v>24</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>31</v>
@@ -6807,7 +6852,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6846,9 +6891,9 @@
         <v>0.0447172034564022</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>23</v>
@@ -6857,7 +6902,7 @@
         <v>24</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>26</v>
@@ -6893,9 +6938,9 @@
         <v>0.0175765907305577</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>23</v>
@@ -6904,7 +6949,7 @@
         <v>34</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>26</v>
@@ -6940,12 +6985,12 @@
         <v>0.0345247446975648</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>26</v>
@@ -6981,12 +7026,12 @@
         <v>0.0051060487038491</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>28</v>
@@ -7022,7 +7067,7 @@
         <v>0.0002553024351924</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7052,7 +7097,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7091,9 +7136,9 @@
         <v>0.069344069128044</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>23</v>
@@ -7102,7 +7147,7 @@
         <v>34</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
@@ -7138,7 +7183,7 @@
         <v>0.0056952081696779</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7177,12 +7222,12 @@
         <v>0.0002356637863315</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>28</v>
@@ -7218,7 +7263,7 @@
         <v>0.0008641005498821</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7257,9 +7302,9 @@
         <v>9.81932443047918E-005</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>23</v>
@@ -7268,7 +7313,7 @@
         <v>24</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>26</v>
@@ -7304,9 +7349,9 @@
         <v>0.0001767478397486</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>23</v>
@@ -7315,7 +7360,7 @@
         <v>24</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>20</v>
@@ -7342,9 +7387,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>23</v>
@@ -7353,7 +7398,7 @@
         <v>24</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>28</v>
@@ -7389,7 +7434,7 @@
         <v>0.0210526315789474</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7419,7 +7464,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7458,9 +7503,9 @@
         <v>0.0007069913589945</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>17</v>
@@ -7469,7 +7514,7 @@
         <v>34</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>20</v>
@@ -7499,12 +7544,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>20</v>
@@ -7543,12 +7588,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>20</v>
@@ -7587,9 +7632,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>17</v>
@@ -7598,7 +7643,7 @@
         <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>31</v>
@@ -7634,10 +7679,10 @@
         <v>9.81932443047918E-005</v>
       </c>
       <c r="P147" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7676,15 +7721,15 @@
         <v>0.0562843676355067</v>
       </c>
       <c r="P148" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>31</v>
@@ -7720,10 +7765,10 @@
         <v>0.0001374705420267</v>
       </c>
       <c r="P149" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7762,12 +7807,12 @@
         <v>0.000903377847604</v>
       </c>
       <c r="P150" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>23</v>
@@ -7776,7 +7821,7 @@
         <v>24</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>26</v>
@@ -7812,9 +7857,9 @@
         <v>9.81932443047918E-005</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>23</v>
@@ -7823,7 +7868,7 @@
         <v>24</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>26</v>
@@ -7859,9 +7904,9 @@
         <v>0.0096818538884524</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>23</v>
@@ -7870,7 +7915,7 @@
         <v>24</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>28</v>
@@ -7906,7 +7951,7 @@
         <v>0.0002749410840534</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7936,9 +7981,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>23</v>
@@ -7947,7 +7992,7 @@
         <v>24</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>31</v>
@@ -7983,7 +8028,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8022,9 +8067,9 @@
         <v>0.0188138256087981</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>23</v>
@@ -8033,7 +8078,7 @@
         <v>24</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>28</v>
@@ -8069,7 +8114,7 @@
         <v>0.0014336213668499</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8108,9 +8153,9 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>23</v>
@@ -8119,7 +8164,7 @@
         <v>24</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>28</v>
@@ -8155,9 +8200,9 @@
         <v>0.0001374705420267</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>23</v>
@@ -8166,10 +8211,10 @@
         <v>24</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>1</v>
@@ -8202,13 +8247,13 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>1</v>
@@ -8232,12 +8277,12 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>28</v>
@@ -8273,7 +8318,7 @@
         <v>5.89159465828751E-005</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8312,7 +8357,7 @@
         <v>0.0008248232521602</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8351,7 +8396,7 @@
         <v>5.89159465828751E-005</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8390,9 +8435,9 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>23</v>
@@ -8401,7 +8446,7 @@
         <v>24</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>28</v>
@@ -8437,7 +8482,7 @@
         <v>0.229870384917518</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8476,7 +8521,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8515,9 +8560,9 @@
         <v>0.0053220738413197</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>23</v>
@@ -8526,7 +8571,7 @@
         <v>24</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>31</v>
@@ -8562,7 +8607,7 @@
         <v>0.328318931657502</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8601,12 +8646,12 @@
         <v>0.0203849175176748</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>31</v>
@@ -8642,7 +8687,7 @@
         <v>0.0002356637863315</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8681,9 +8726,9 @@
         <v>0.196347211311862</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>23</v>
@@ -8692,7 +8737,7 @@
         <v>24</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>20</v>
@@ -8728,9 +8773,9 @@
         <v>0.0022780832678711</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>17</v>
@@ -8739,7 +8784,7 @@
         <v>34</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>20</v>
@@ -8778,12 +8823,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>20</v>
@@ -8822,12 +8867,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>20</v>
@@ -8866,12 +8911,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>20</v>
@@ -8910,9 +8955,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>23</v>
@@ -8921,7 +8966,7 @@
         <v>24</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>28</v>
@@ -8957,7 +9002,7 @@
         <v>0.0227611940298507</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8996,12 +9041,12 @@
         <v>0.0017085624509033</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>28</v>
@@ -9037,7 +9082,7 @@
         <v>0.0043401413982718</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9076,9 +9121,9 @@
         <v>0.0002945797329143</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>23</v>
@@ -9087,7 +9132,7 @@
         <v>24</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>28</v>
@@ -9123,7 +9168,7 @@
         <v>5.89159465828751E-005</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9162,7 +9207,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9201,9 +9246,9 @@
         <v>0.033032207384132</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>23</v>
@@ -9212,7 +9257,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>28</v>
@@ -9248,9 +9293,9 @@
         <v>0.0019442262372348</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>23</v>
@@ -9259,7 +9304,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>28</v>
@@ -9295,9 +9340,9 @@
         <v>0.0002160251374705</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>23</v>
@@ -9306,7 +9351,7 @@
         <v>24</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>28</v>
@@ -9342,7 +9387,7 @@
         <v>9.81932443047918E-005</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -9381,7 +9426,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9420,9 +9465,9 @@
         <v>0.0099371563236449</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>17</v>
@@ -9431,7 +9476,7 @@
         <v>18</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>20</v>
@@ -9467,12 +9512,12 @@
         <v>0.109151610369207</v>
       </c>
       <c r="P190" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>17</v>
@@ -9481,7 +9526,7 @@
         <v>18</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>20</v>
@@ -9519,7 +9564,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>17</v>
@@ -9528,7 +9573,7 @@
         <v>34</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>28</v>
@@ -9564,7 +9609,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -9603,12 +9648,12 @@
         <v>0.366260801256874</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>26</v>
@@ -9644,9 +9689,9 @@
         <v>0.0494304791830322</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>23</v>
@@ -9655,7 +9700,7 @@
         <v>24</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>102</v>
@@ -9682,7 +9727,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -9721,9 +9766,9 @@
         <v>0.237627651217596</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>23</v>
@@ -9732,7 +9777,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>98</v>
@@ -9759,7 +9804,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9798,9 +9843,9 @@
         <v>0.291123330714847</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>23</v>
@@ -9809,7 +9854,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>28</v>
@@ -9845,7 +9890,7 @@
         <v>0.0150432050274941</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9884,9 +9929,9 @@
         <v>0.0008248232521602</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>17</v>
@@ -9895,7 +9940,7 @@
         <v>34</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>20</v>
@@ -9934,12 +9979,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>20</v>
@@ -9978,12 +10023,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>20</v>
@@ -10022,12 +10067,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>20</v>
@@ -10066,9 +10111,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>23</v>
@@ -10077,7 +10122,7 @@
         <v>24</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -10104,7 +10149,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -10134,7 +10179,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -10173,9 +10218,9 @@
         <v>0.0471327572663001</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>23</v>
@@ -10184,7 +10229,7 @@
         <v>24</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>26</v>
@@ -10220,9 +10265,9 @@
         <v>0.0683228593872742</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>23</v>
@@ -10231,10 +10276,10 @@
         <v>24</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>1</v>
@@ -10267,15 +10312,15 @@
         <v>0.167969363707777</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>1</v>
@@ -10308,12 +10353,12 @@
         <v>0.001885310290652</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -10349,7 +10394,7 @@
         <v>0.367871170463472</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -10388,9 +10433,9 @@
         <v>0.0001767478397486</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>17</v>
@@ -10399,7 +10444,7 @@
         <v>18</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>20</v>
@@ -10435,9 +10480,9 @@
         <v>0.0008051846032992</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>23</v>
@@ -10446,7 +10491,7 @@
         <v>24</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>26</v>
@@ -10482,9 +10527,9 @@
         <v>0.147054202670856</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>23</v>
@@ -10493,10 +10538,10 @@
         <v>24</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F215" s="0" t="n">
         <v>1</v>
@@ -10529,9 +10574,9 @@
         <v>0.0004909662215239</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>23</v>
@@ -10540,7 +10585,7 @@
         <v>24</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -10567,7 +10612,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -10606,7 +10651,7 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10645,9 +10690,9 @@
         <v>0.207816182246661</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>23</v>
@@ -10656,7 +10701,7 @@
         <v>24</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>20</v>
@@ -10692,9 +10737,9 @@
         <v>0.0050078554595443</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>23</v>
@@ -10703,7 +10748,7 @@
         <v>24</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -10739,7 +10784,7 @@
         <v>0.002827965435978</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -10778,9 +10823,9 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>17</v>
@@ -10789,7 +10834,7 @@
         <v>34</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>20</v>
@@ -10828,12 +10873,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>20</v>
@@ -10872,12 +10917,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>20</v>
@@ -10916,12 +10961,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>20</v>
@@ -10960,12 +11005,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>20</v>
@@ -11004,12 +11049,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>20</v>
@@ -11039,12 +11084,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>20</v>
@@ -11083,12 +11128,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>20</v>
@@ -11127,9 +11172,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>17</v>
@@ -11138,10 +11183,10 @@
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F230" s="0" t="n">
         <v>1</v>
@@ -11174,15 +11219,15 @@
         <v>0.0042812254516889</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F231" s="0" t="n">
         <v>1</v>
@@ -11215,15 +11260,15 @@
         <v>0.184996072270228</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F232" s="0" t="n">
         <v>1</v>
@@ -11256,15 +11301,15 @@
         <v>0.203633150039277</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F233" s="0" t="n">
         <v>1</v>
@@ -11297,15 +11342,15 @@
         <v>0.002317360565593</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>1</v>
@@ -11338,15 +11383,15 @@
         <v>0.0222898664571877</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F235" s="0" t="n">
         <v>1</v>
@@ -11379,15 +11424,15 @@
         <v>0.0033582089552238</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F236" s="0" t="n">
         <v>1</v>
@@ -11420,15 +11465,15 @@
         <v>0.383150039277298</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F237" s="0" t="n">
         <v>1</v>
@@ -11461,9 +11506,9 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>23</v>
@@ -11472,7 +11517,7 @@
         <v>24</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>28</v>
@@ -11508,9 +11553,9 @@
         <v>0.0001767478397486</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>17</v>
@@ -11519,7 +11564,7 @@
         <v>34</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>20</v>
@@ -11558,12 +11603,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>20</v>
@@ -11602,12 +11647,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>20</v>
@@ -11646,12 +11691,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>20</v>
@@ -11690,12 +11735,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>20</v>
@@ -11734,9 +11779,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>23</v>
@@ -11745,7 +11790,7 @@
         <v>24</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>26</v>
@@ -11781,9 +11826,9 @@
         <v>0.0007069913589945</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>17</v>
@@ -11792,7 +11837,7 @@
         <v>34</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>20</v>
@@ -11831,12 +11876,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>20</v>
@@ -11875,9 +11920,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>17</v>
@@ -11886,7 +11931,7 @@
         <v>34</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>90</v>
@@ -11922,12 +11967,12 @@
         <v>0.0954438334642577</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>90</v>
@@ -11963,12 +12008,12 @@
         <v>0.0661822466614297</v>
       </c>
       <c r="P248" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>17</v>
@@ -11977,7 +12022,7 @@
         <v>34</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>20</v>
@@ -12013,15 +12058,15 @@
         <v>0.314709347996858</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F250" s="0" t="n">
         <v>1</v>
@@ -12054,13 +12099,13 @@
         <v>0.0276315789473684</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F251" s="0" t="n">
         <v>1</v>
@@ -12084,9 +12129,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>23</v>
@@ -12095,7 +12140,7 @@
         <v>24</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>28</v>
@@ -12131,7 +12176,7 @@
         <v>0.0014336213668499</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -12170,9 +12215,9 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>23</v>
@@ -12181,7 +12226,7 @@
         <v>24</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>26</v>
@@ -12217,9 +12262,9 @@
         <v>0.0373723487824038</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>17</v>
@@ -12228,7 +12273,7 @@
         <v>18</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>98</v>
@@ -12264,10 +12309,10 @@
         <v>3.92772977219167E-005</v>
       </c>
       <c r="P255" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -12306,12 +12351,12 @@
         <v>0.444344069128044</v>
       </c>
       <c r="P256" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>23</v>
@@ -12320,7 +12365,7 @@
         <v>24</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
@@ -12347,7 +12392,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -12386,9 +12431,9 @@
         <v>0.071209740769835</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>23</v>
@@ -12397,7 +12442,7 @@
         <v>24</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>28</v>
@@ -12433,7 +12478,7 @@
         <v>0.0255695208169678</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -12472,9 +12517,9 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>23</v>
@@ -12483,7 +12528,7 @@
         <v>24</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>26</v>
@@ -12519,9 +12564,9 @@
         <v>9.81932443047918E-005</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>23</v>
@@ -12530,7 +12575,7 @@
         <v>24</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>28</v>
@@ -12566,7 +12611,7 @@
         <v>0.0008248232521602</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -12605,7 +12650,7 @@
         <v>0.0001374705420267</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -12644,9 +12689,9 @@
         <v>0.0652592301649647</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>23</v>
@@ -12655,7 +12700,7 @@
         <v>24</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>26</v>
@@ -12691,9 +12736,9 @@
         <v>0.0073448546739984</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>23</v>
@@ -12702,7 +12747,7 @@
         <v>24</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>28</v>
@@ -12738,7 +12783,7 @@
         <v>0.0175765907305577</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -12777,9 +12822,9 @@
         <v>0.0009819324430479</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>23</v>
@@ -12788,7 +12833,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>29</v>
@@ -12824,12 +12869,12 @@
         <v>0.0071288295365278</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>20</v>
@@ -12856,12 +12901,12 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>20</v>
@@ -12897,9 +12942,9 @@
         <v>0.0007069913589945</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>23</v>
@@ -12908,7 +12953,7 @@
         <v>24</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>26</v>
@@ -12944,9 +12989,9 @@
         <v>0.15595051060487</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>23</v>
@@ -12955,7 +13000,7 @@
         <v>24</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>28</v>
@@ -12994,7 +13039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -13036,7 +13081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -13069,12 +13114,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>20</v>
@@ -13113,12 +13158,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>29</v>
@@ -13157,9 +13202,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>23</v>
@@ -13168,7 +13213,7 @@
         <v>24</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>29</v>
@@ -13204,7 +13249,7 @@
         <v>0.0101335428122545</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -13243,9 +13288,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>23</v>
@@ -13254,7 +13299,7 @@
         <v>24</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>26</v>
@@ -13290,9 +13335,9 @@
         <v>0.0175373134328358</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>23</v>
@@ -13301,7 +13346,7 @@
         <v>24</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>28</v>
@@ -13337,7 +13382,7 @@
         <v>0.0580518460329929</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -13376,7 +13421,7 @@
         <v>0.0013550667714061</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -13415,9 +13460,9 @@
         <v>0.0041830322073841</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>23</v>
@@ -13426,7 +13471,7 @@
         <v>24</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>26</v>
@@ -13462,9 +13507,9 @@
         <v>0.0038295365278868</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>23</v>
@@ -13473,7 +13518,7 @@
         <v>24</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>31</v>
@@ -13500,7 +13545,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -13539,9 +13584,9 @@
         <v>0.195129615082482</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>23</v>
@@ -13550,7 +13595,7 @@
         <v>24</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>28</v>
@@ -13586,7 +13631,7 @@
         <v>0.133032207384132</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -13616,7 +13661,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -13646,7 +13691,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -13685,9 +13730,9 @@
         <v>0.0062843676355066</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>23</v>
@@ -13696,7 +13741,7 @@
         <v>24</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>28</v>
@@ -13732,7 +13777,7 @@
         <v>0.0185978004713276</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -13762,7 +13807,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -13801,9 +13846,9 @@
         <v>0.0010604870384917</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>23</v>
@@ -13812,7 +13857,7 @@
         <v>24</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>26</v>
@@ -13848,9 +13893,9 @@
         <v>0.180243519245876</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>23</v>
@@ -13859,7 +13904,7 @@
         <v>24</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>26</v>
@@ -13895,9 +13940,9 @@
         <v>0.019815396700707</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>23</v>
@@ -13906,7 +13951,7 @@
         <v>24</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>26</v>
@@ -13942,9 +13987,9 @@
         <v>0.252513747054203</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>23</v>
@@ -13953,7 +13998,7 @@
         <v>24</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>20</v>
@@ -13989,13 +14034,13 @@
         <v>0.0183032207384132</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F297" s="0" t="n">
         <v>1</v>
@@ -14019,9 +14064,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>23</v>
@@ -14030,7 +14075,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>26</v>
@@ -14066,9 +14111,9 @@
         <v>0.0002356637863315</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>17</v>
@@ -14077,7 +14122,7 @@
         <v>34</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>20</v>
@@ -14113,12 +14158,12 @@
         <v>0.0515710919088767</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>98</v>
@@ -14154,7 +14199,7 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -14193,12 +14238,12 @@
         <v>0.871582875098193</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>20</v>
@@ -14234,12 +14279,12 @@
         <v>0.003750981932443</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>20</v>
@@ -14275,9 +14320,9 @@
         <v>0.0222702278083268</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>23</v>
@@ -14286,7 +14331,7 @@
         <v>24</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>28</v>
@@ -14322,7 +14367,7 @@
         <v>0.0107423409269442</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -14361,7 +14406,7 @@
         <v>0.0006087981146897</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -14400,7 +14445,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -14439,9 +14484,9 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>23</v>
@@ -14450,7 +14495,7 @@
         <v>24</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>28</v>
@@ -14486,7 +14531,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -14525,7 +14570,7 @@
         <v>0.0002749410840534</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -14564,9 +14609,9 @@
         <v>0.005164964650432</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>23</v>
@@ -14575,7 +14620,7 @@
         <v>24</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>26</v>
@@ -14611,9 +14656,9 @@
         <v>0.0390809112333071</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>17</v>
@@ -14622,7 +14667,7 @@
         <v>34</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>20</v>
@@ -14661,12 +14706,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>20</v>
@@ -14705,9 +14750,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>23</v>
@@ -14716,7 +14761,7 @@
         <v>24</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>26</v>
@@ -14752,9 +14797,9 @@
         <v>0.0003534956794972</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>23</v>
@@ -14763,7 +14808,7 @@
         <v>24</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>26</v>
@@ -14799,12 +14844,12 @@
         <v>0.0550864100549882</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>26</v>
@@ -14840,9 +14885,9 @@
         <v>0.0148664571877455</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>23</v>
@@ -14851,7 +14896,7 @@
         <v>24</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>26</v>
@@ -14887,9 +14932,9 @@
         <v>0.142910447761194</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>23</v>
@@ -14898,7 +14943,7 @@
         <v>24</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>26</v>
@@ -14934,9 +14979,9 @@
         <v>0.0110369206598586</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>17</v>
@@ -14945,7 +14990,7 @@
         <v>18</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>26</v>
@@ -14981,12 +15026,12 @@
         <v>0.207717989002357</v>
       </c>
       <c r="P319" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>17</v>
@@ -14995,7 +15040,7 @@
         <v>34</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>20</v>
@@ -15034,12 +15079,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>20</v>
@@ -15078,12 +15123,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>20</v>
@@ -15122,9 +15167,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>17</v>
@@ -15133,7 +15178,7 @@
         <v>34</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>20</v>
@@ -15172,12 +15217,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>20</v>
@@ -15216,12 +15261,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>20</v>
@@ -15260,12 +15305,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>20</v>
@@ -15304,12 +15349,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>20</v>
@@ -15348,12 +15393,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>20</v>
@@ -15392,12 +15437,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>20</v>
@@ -15436,12 +15481,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>20</v>
@@ -15480,12 +15525,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>20</v>
@@ -15524,12 +15569,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>20</v>
@@ -15568,12 +15613,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>20</v>
@@ -15612,12 +15657,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>20</v>
@@ -15656,9 +15701,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>17</v>
@@ -15667,7 +15712,7 @@
         <v>18</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>20</v>
@@ -15703,9 +15748,9 @@
         <v>0.0039866457187745</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>17</v>
@@ -15714,7 +15759,7 @@
         <v>18</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>20</v>
@@ -15750,9 +15795,9 @@
         <v>0.129261586802828</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>17</v>
@@ -15761,7 +15806,7 @@
         <v>34</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>20</v>
@@ -15797,12 +15842,12 @@
         <v>0.0370581304006284</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>20</v>
@@ -15838,9 +15883,9 @@
         <v>0.0045758051846033</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>17</v>
@@ -15849,7 +15894,7 @@
         <v>18</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>20</v>
@@ -15885,9 +15930,9 @@
         <v>0.0106245090337785</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>17</v>
@@ -15896,7 +15941,7 @@
         <v>34</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>98</v>
@@ -15932,7 +15977,7 @@
         <v>0.0001963864886095</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -15971,12 +16016,12 @@
         <v>0.311704634721131</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>98</v>
@@ -16003,7 +16048,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -16042,9 +16087,9 @@
         <v>0.0417517674783975</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>17</v>
@@ -16053,7 +16098,7 @@
         <v>34</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>98</v>
@@ -16089,7 +16134,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -16128,13 +16173,13 @@
         <v>0.042478397486253</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F346" s="0" t="n">
         <v>1</v>
@@ -16158,15 +16203,15 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="Q346" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>20</v>
@@ -16202,9 +16247,9 @@
         <v>0.0007462686567164</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>17</v>
@@ -16213,7 +16258,7 @@
         <v>34</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>20</v>
@@ -16249,13 +16294,13 @@
         <v>0.0851531814611155</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F349" s="0" t="n">
         <v>1</v>
@@ -16279,12 +16324,12 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>20</v>
@@ -16320,9 +16365,9 @@
         <v>0.0033974862529458</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>17</v>
@@ -16331,7 +16376,7 @@
         <v>34</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>20</v>
@@ -16367,12 +16412,12 @@
         <v>0.0375883739198743</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>20</v>
@@ -16408,9 +16453,9 @@
         <v>0.000432050274941</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>23</v>
@@ -16419,7 +16464,7 @@
         <v>24</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>31</v>
@@ -16455,7 +16500,7 @@
         <v>0.0146897093479969</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -16494,9 +16539,9 @@
         <v>0.0079143754909662</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>23</v>
@@ -16505,7 +16550,7 @@
         <v>24</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>28</v>
@@ -16541,7 +16586,7 @@
         <v>0.0417910447761194</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -16580,9 +16625,9 @@
         <v>0.0002356637863315</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>23</v>
@@ -16591,7 +16636,7 @@
         <v>24</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>29</v>
@@ -16618,7 +16663,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -16657,9 +16702,9 @@
         <v>0.0345051060487038</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>23</v>
@@ -16668,7 +16713,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>58</v>
@@ -16695,9 +16740,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>17</v>
@@ -16706,7 +16751,7 @@
         <v>18</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>20</v>
@@ -16745,9 +16790,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>17</v>
@@ -16756,7 +16801,7 @@
         <v>34</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>20</v>
@@ -16792,12 +16837,12 @@
         <v>0.0023762765121759</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>98</v>
@@ -16833,7 +16878,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -16872,13 +16917,13 @@
         <v>0.76761586802828</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F364" s="0" t="n">
         <v>0.001</v>
@@ -16902,12 +16947,12 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="Q364" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>17</v>
@@ -16916,7 +16961,7 @@
         <v>18</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>20</v>
@@ -16952,9 +16997,9 @@
         <v>0.254202670856245</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>23</v>
@@ -16963,7 +17008,7 @@
         <v>24</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>26</v>
@@ -16999,9 +17044,9 @@
         <v>0.0001767478397486</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>23</v>
@@ -17010,7 +17055,7 @@
         <v>24</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>28</v>
@@ -17046,7 +17091,7 @@
         <v>0.225864100549882</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -17085,7 +17130,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -17124,9 +17169,9 @@
         <v>0.0423409269442262</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>23</v>
@@ -17135,7 +17180,7 @@
         <v>24</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>28</v>
@@ -17171,7 +17216,7 @@
         <v>0.002317360565593</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -17201,9 +17246,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>23</v>
@@ -17212,7 +17257,7 @@
         <v>24</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>26</v>
@@ -17248,9 +17293,9 @@
         <v>0.0012765121759622</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>17</v>
@@ -17259,7 +17304,7 @@
         <v>34</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>20</v>
@@ -17298,12 +17343,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>20</v>
@@ -17342,12 +17387,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>20</v>
@@ -17386,12 +17431,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>20</v>
@@ -17430,12 +17475,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>20</v>
@@ -17474,9 +17519,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>17</v>
@@ -17485,7 +17530,7 @@
         <v>18</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>20</v>
@@ -17521,12 +17566,12 @@
         <v>0.0030243519245875</v>
       </c>
       <c r="P378" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>17</v>
@@ -17535,7 +17580,7 @@
         <v>34</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>26</v>
@@ -17571,15 +17616,15 @@
         <v>0.237882953652789</v>
       </c>
       <c r="P379" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>26</v>
@@ -17615,15 +17660,15 @@
         <v>0.004241948153967</v>
       </c>
       <c r="P380" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>26</v>
@@ -17659,12 +17704,12 @@
         <v>0.0390023566378633</v>
       </c>
       <c r="P381" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>78</v>
@@ -17673,7 +17718,7 @@
         <v>78</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>20</v>
@@ -17709,12 +17754,12 @@
         <v>0.371818538884525</v>
       </c>
       <c r="P382" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>23</v>
@@ -17723,7 +17768,7 @@
         <v>24</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>28</v>
@@ -17759,7 +17804,7 @@
         <v>0.0558326787117046</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -17798,7 +17843,7 @@
         <v>0.0001571091908876</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -17837,12 +17882,12 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>28</v>
@@ -17878,7 +17923,7 @@
         <v>0.140062843676355</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -17917,7 +17962,7 @@
         <v>0.0005891594658287</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -17956,9 +18001,9 @@
         <v>0.000451688923802</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>17</v>
@@ -17967,7 +18012,7 @@
         <v>18</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>20</v>
@@ -18003,12 +18048,12 @@
         <v>0.0014925373134328</v>
       </c>
       <c r="P389" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>17</v>
@@ -18017,7 +18062,7 @@
         <v>18</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>20</v>
@@ -18053,9 +18098,9 @@
         <v>0.0689709347996858</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>17</v>
@@ -18064,10 +18109,10 @@
         <v>18</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F391" s="0" t="n">
         <v>1</v>
@@ -18100,13 +18145,13 @@
         <v>0.464866457187746</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F392" s="0" t="n">
         <v>1</v>
@@ -18130,9 +18175,9 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>78</v>
@@ -18141,7 +18186,7 @@
         <v>78</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>98</v>
@@ -18177,10 +18222,10 @@
         <v>0.0005302435192458</v>
       </c>
       <c r="P393" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -18219,12 +18264,12 @@
         <v>0.244304791830322</v>
       </c>
       <c r="P394" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>17</v>
@@ -18233,7 +18278,7 @@
         <v>18</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>20</v>
@@ -18272,9 +18317,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>23</v>
@@ -18283,7 +18328,7 @@
         <v>24</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>26</v>
@@ -18319,9 +18364,9 @@
         <v>0.000471327572663</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>23</v>
@@ -18330,10 +18375,10 @@
         <v>24</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F397" s="0" t="n">
         <v>1</v>
@@ -18366,9 +18411,9 @@
         <v>0.0001374705420267</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>17</v>
@@ -18377,7 +18422,7 @@
         <v>34</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>20</v>
@@ -18416,12 +18461,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>98</v>
@@ -18460,7 +18505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -18502,9 +18547,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>23</v>
@@ -18513,7 +18558,7 @@
         <v>24</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>31</v>
@@ -18549,7 +18594,7 @@
         <v>0.0010604870384917</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -18588,9 +18633,9 @@
         <v>0.422682639434407</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>23</v>
@@ -18599,7 +18644,7 @@
         <v>24</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>26</v>
@@ -18635,9 +18680,9 @@
         <v>0.007541241162608</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>17</v>
@@ -18646,7 +18691,7 @@
         <v>34</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>20</v>
@@ -18685,12 +18730,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>20</v>
@@ -18720,12 +18765,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>20</v>
@@ -18764,9 +18809,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>23</v>
@@ -18775,7 +18820,7 @@
         <v>24</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>28</v>
@@ -18811,9 +18856,9 @@
         <v>7.85545954438335E-005</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>23</v>
@@ -18822,7 +18867,7 @@
         <v>24</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>28</v>
@@ -18858,9 +18903,9 @@
         <v>0.0001571091908876</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>23</v>
@@ -18869,7 +18914,7 @@
         <v>24</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>26</v>
@@ -18905,12 +18950,12 @@
         <v>0.0001178318931657</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>28</v>
@@ -18946,7 +18991,7 @@
         <v>0.0658876669285153</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -18985,9 +19030,9 @@
         <v>0.000432050274941</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>17</v>
@@ -18996,7 +19041,7 @@
         <v>34</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>20</v>
@@ -19035,12 +19080,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>20</v>
@@ -19079,12 +19124,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>20</v>
@@ -19123,12 +19168,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>20</v>
@@ -19167,12 +19212,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>20</v>
@@ -19211,12 +19256,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>20</v>
@@ -19255,12 +19300,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>20</v>
@@ -19299,12 +19344,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>20</v>
@@ -19343,12 +19388,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>20</v>
@@ -19387,12 +19432,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>20</v>
@@ -19431,9 +19476,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>17</v>
@@ -19442,7 +19487,7 @@
         <v>18</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>20</v>
@@ -19481,9 +19526,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>23</v>
@@ -19492,7 +19537,7 @@
         <v>24</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>28</v>
@@ -19528,7 +19573,7 @@
         <v>0.0015907305577376</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -19567,9 +19612,9 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>23</v>
@@ -19578,7 +19623,7 @@
         <v>24</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>26</v>
@@ -19614,12 +19659,12 @@
         <v>0.0155145326001571</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>26</v>
@@ -19655,9 +19700,9 @@
         <v>0.0088570306362922</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>17</v>
@@ -19666,7 +19711,7 @@
         <v>18</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>20</v>
@@ -19705,12 +19750,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>20</v>
@@ -19749,12 +19794,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>20</v>
@@ -19793,12 +19838,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>20</v>
@@ -19837,12 +19882,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>20</v>
@@ -19881,9 +19926,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>17</v>
@@ -19892,10 +19937,10 @@
         <v>18</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F432" s="0" t="n">
         <v>1</v>
@@ -19928,9 +19973,9 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>17</v>
@@ -19939,10 +19984,10 @@
         <v>18</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F433" s="0" t="n">
         <v>60</v>
@@ -19975,13 +20020,13 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F434" s="0" t="n">
         <v>1</v>
@@ -20014,12 +20059,12 @@
         <v>0.0578750981932443</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>20</v>
@@ -20055,9 +20100,9 @@
         <v>0.04057344854674</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>17</v>
@@ -20066,7 +20111,7 @@
         <v>18</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>20</v>
@@ -20102,9 +20147,9 @@
         <v>0.61598586017282</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>17</v>
@@ -20113,7 +20158,7 @@
         <v>18</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>20</v>
@@ -20149,9 +20194,9 @@
         <v>0.138157894736842</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>17</v>
@@ -20160,7 +20205,7 @@
         <v>18</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>20</v>
@@ -20196,9 +20241,9 @@
         <v>0.0172623723487824</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>17</v>
@@ -20207,7 +20252,7 @@
         <v>18</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>20</v>
@@ -20243,9 +20288,9 @@
         <v>0.0200903377847604</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>23</v>
@@ -20254,7 +20299,7 @@
         <v>24</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>28</v>
@@ -20290,7 +20335,7 @@
         <v>0.0021013354281225</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -20329,9 +20374,9 @@
         <v>5.89159465828751E-005</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>23</v>
@@ -20340,7 +20385,7 @@
         <v>24</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>26</v>
@@ -20376,9 +20421,9 @@
         <v>0.002788688138256</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>23</v>
@@ -20387,7 +20432,7 @@
         <v>24</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>28</v>
@@ -20423,7 +20468,7 @@
         <v>0.0115278868813826</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -20462,9 +20507,9 @@
         <v>0.0003927729772191</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>23</v>
@@ -20473,7 +20518,7 @@
         <v>24</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>31</v>
@@ -20509,7 +20554,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -20548,9 +20593,9 @@
         <v>0.0001767478397486</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>17</v>
@@ -20559,7 +20604,7 @@
         <v>34</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>20</v>
@@ -20598,12 +20643,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>20</v>
@@ -20642,9 +20687,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>23</v>
@@ -20653,7 +20698,7 @@
         <v>24</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>28</v>
@@ -20689,7 +20734,7 @@
         <v>0.413805970149254</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -20728,7 +20773,7 @@
         <v>0.0111743912018853</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -20767,7 +20812,7 @@
         <v>3.92772977219167E-005</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -20806,9 +20851,9 @@
         <v>0.0273959151610369</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>17</v>
@@ -20817,10 +20862,10 @@
         <v>18</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F453" s="0" t="n">
         <v>1</v>
@@ -20853,12 +20898,12 @@
         <v>0.0722309505106049</v>
       </c>
       <c r="P453" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>23</v>
@@ -20867,7 +20912,7 @@
         <v>24</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>26</v>
@@ -20903,9 +20948,9 @@
         <v>0.0007462686567164</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>17</v>
@@ -20914,7 +20959,7 @@
         <v>18</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>20</v>
@@ -20953,9 +20998,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>17</v>
@@ -20964,7 +21009,7 @@
         <v>18</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>20</v>
@@ -21003,9 +21048,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>23</v>
@@ -21014,7 +21059,7 @@
         <v>24</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>31</v>
@@ -21041,7 +21086,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -21080,9 +21125,9 @@
         <v>0.0315593087195601</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>17</v>
@@ -21091,7 +21136,7 @@
         <v>34</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>20</v>
@@ -21130,12 +21175,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>20</v>
@@ -21174,12 +21219,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>20</v>
@@ -21218,9 +21263,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>23</v>
@@ -21229,7 +21274,7 @@
         <v>24</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>28</v>
@@ -21265,7 +21310,7 @@
         <v>0.027808326787117</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -21304,7 +21349,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -21334,7 +21379,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -21373,12 +21418,12 @@
         <v>0.001413982717989</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>28</v>
@@ -21414,7 +21459,7 @@
         <v>0.0017085624509033</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -21453,12 +21498,12 @@
         <v>0.0001571091908876</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>28</v>
@@ -21494,9 +21539,9 @@
         <v>0.0011390416339355</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>23</v>
@@ -21505,7 +21550,7 @@
         <v>24</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>28</v>
@@ -21541,7 +21586,7 @@
         <v>0.0762175962293794</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -21571,7 +21616,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -21610,12 +21655,12 @@
         <v>0.0033385703063629</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>28</v>
@@ -21651,7 +21696,7 @@
         <v>0.0474862529457973</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -21681,7 +21726,7 @@
         <v>1.96386488609584E-005</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -21720,12 +21765,12 @@
         <v>0.00184603299293</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>28</v>
@@ -21761,7 +21806,7 @@
         <v>0.0001374705420267</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>

--- a/notebooks/mimic_icu/input_label_groups_decisions.xlsx
+++ b/notebooks/mimic_icu/input_label_groups_decisions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="411">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -211,6 +211,9 @@
     <t xml:space="preserve">Bivalirudin (Angiomax) (Impella)</t>
   </si>
   <si>
+    <t xml:space="preserve">Boost Glucose Control</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boost Glucose Control (1/2)</t>
   </si>
   <si>
@@ -311,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cyclosporine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
   </si>
   <si>
     <t xml:space="preserve">D5 1/2NS</t>
@@ -1367,10 +1373,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
@@ -3649,7 +3655,7 @@
         <v>24</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>20</v>
@@ -3688,7 +3694,7 @@
         <v>56</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,7 +3702,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>20</v>
@@ -3726,7 +3732,7 @@
         <v>56</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,7 +3740,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>20</v>
@@ -3773,7 +3779,7 @@
         <v>56</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +3787,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>20</v>
@@ -3820,12 +3826,12 @@
         <v>56</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
@@ -3834,7 +3840,7 @@
         <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>26</v>
@@ -3870,12 +3876,12 @@
         <v>0.0023959151610369</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
@@ -3884,7 +3890,7 @@
         <v>24</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>28</v>
@@ -3920,10 +3926,10 @@
         <v>3.92772977219167E-005</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,10 +3971,10 @@
         <v>0.0015514532600157</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,15 +4016,15 @@
         <v>0.0021209740769835</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
@@ -4027,7 +4033,7 @@
         <v>24</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>29</v>
@@ -4063,10 +4069,10 @@
         <v>0.340298507462687</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,7 +4080,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>20</v>
@@ -4110,10 +4116,10 @@
         <v>0.0219952867242734</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,7 +4127,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>29</v>
@@ -4157,10 +4163,10 @@
         <v>0.0312450903377848</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,15 +4208,15 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>23</v>
@@ -4219,7 +4225,7 @@
         <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>28</v>
@@ -4326,7 +4332,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>23</v>
@@ -4335,7 +4341,7 @@
         <v>24</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>28</v>
@@ -4412,16 +4418,16 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>20</v>
@@ -4457,7 +4463,7 @@
         <v>0.0426551453260016</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,7 +4472,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>1</v>
@@ -4490,12 +4496,12 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>23</v>
@@ -4504,7 +4510,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>28</v>
@@ -4620,7 +4626,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>23</v>
@@ -4629,7 +4635,7 @@
         <v>24</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>28</v>
@@ -4784,7 +4790,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>23</v>
@@ -4793,7 +4799,7 @@
         <v>24</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>28</v>
@@ -4900,7 +4906,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>23</v>
@@ -4909,7 +4915,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>28</v>
@@ -5025,7 +5031,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>23</v>
@@ -5034,7 +5040,7 @@
         <v>24</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>28</v>
@@ -5150,16 +5156,16 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>20</v>
@@ -5195,12 +5201,12 @@
         <v>0.000471327572663</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>23</v>
@@ -5209,7 +5215,7 @@
         <v>24</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>31</v>
@@ -5277,7 +5283,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>23</v>
@@ -5286,10 +5292,10 @@
         <v>24</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>1</v>
@@ -5324,7 +5330,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>23</v>
@@ -5333,7 +5339,7 @@
         <v>24</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>26</v>
@@ -5371,7 +5377,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>23</v>
@@ -5380,7 +5386,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>28</v>
@@ -5457,7 +5463,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>23</v>
@@ -5466,7 +5472,7 @@
         <v>24</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>28</v>
@@ -5543,7 +5549,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>23</v>
@@ -5552,7 +5558,7 @@
         <v>24</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>28</v>
@@ -5668,7 +5674,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>17</v>
@@ -5677,7 +5683,7 @@
         <v>18</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>20</v>
@@ -5715,7 +5721,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>23</v>
@@ -5724,7 +5730,7 @@
         <v>24</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>26</v>
@@ -5762,7 +5768,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>17</v>
@@ -5771,10 +5777,10 @@
         <v>34</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>1</v>
@@ -5851,7 +5857,7 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>20</v>
@@ -5888,23 +5894,17 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>876</v>
@@ -5935,23 +5935,17 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>1</v>
@@ -5981,7 +5975,7 @@
         <v>20</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>1980</v>
@@ -6013,7 +6007,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>23</v>
@@ -6022,7 +6016,7 @@
         <v>24</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>28</v>
@@ -6099,7 +6093,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>23</v>
@@ -6108,7 +6102,7 @@
         <v>24</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>31</v>
@@ -6185,7 +6179,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>17</v>
@@ -6194,7 +6188,7 @@
         <v>18</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>20</v>
@@ -6232,7 +6226,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>17</v>
@@ -6241,7 +6235,7 @@
         <v>34</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>20</v>
@@ -6282,7 +6276,7 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>20</v>
@@ -6323,7 +6317,7 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>20</v>
@@ -6364,7 +6358,7 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>20</v>
@@ -6405,7 +6399,7 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>20</v>
@@ -6446,7 +6440,7 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>20</v>
@@ -6487,7 +6481,7 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>29</v>
@@ -6553,12 +6547,12 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="Q120" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>23</v>
@@ -6567,7 +6561,7 @@
         <v>24</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>26</v>
@@ -6605,7 +6599,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>23</v>
@@ -6614,7 +6608,7 @@
         <v>24</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>28</v>
@@ -6730,7 +6724,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>23</v>
@@ -6739,7 +6733,7 @@
         <v>24</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>29</v>
@@ -6816,7 +6810,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>23</v>
@@ -6825,7 +6819,7 @@
         <v>24</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>31</v>
@@ -6893,7 +6887,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>23</v>
@@ -6902,7 +6896,7 @@
         <v>24</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>26</v>
@@ -6940,7 +6934,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>23</v>
@@ -6949,7 +6943,7 @@
         <v>34</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>26</v>
@@ -6990,7 +6984,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>26</v>
@@ -7031,7 +7025,7 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>28</v>
@@ -7138,7 +7132,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>23</v>
@@ -7147,7 +7141,7 @@
         <v>34</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>28</v>
@@ -7227,7 +7221,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>28</v>
@@ -7304,7 +7298,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>23</v>
@@ -7313,7 +7307,7 @@
         <v>24</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>26</v>
@@ -7351,7 +7345,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>23</v>
@@ -7360,7 +7354,7 @@
         <v>24</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>20</v>
@@ -7389,7 +7383,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>23</v>
@@ -7398,7 +7392,7 @@
         <v>24</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>28</v>
@@ -7505,7 +7499,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>17</v>
@@ -7514,7 +7508,7 @@
         <v>34</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>20</v>
@@ -7549,7 +7543,7 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>20</v>
@@ -7593,7 +7587,7 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>20</v>
@@ -7634,7 +7628,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>17</v>
@@ -7643,7 +7637,7 @@
         <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>31</v>
@@ -7679,7 +7673,7 @@
         <v>9.81932443047918E-005</v>
       </c>
       <c r="P147" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,7 +7715,7 @@
         <v>0.0562843676355067</v>
       </c>
       <c r="P148" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +7723,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>31</v>
@@ -7765,7 +7759,7 @@
         <v>0.0001374705420267</v>
       </c>
       <c r="P149" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,12 +7801,12 @@
         <v>0.000903377847604</v>
       </c>
       <c r="P150" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>23</v>
@@ -7821,7 +7815,7 @@
         <v>24</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>26</v>
@@ -7859,7 +7853,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>23</v>
@@ -7868,7 +7862,7 @@
         <v>24</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>26</v>
@@ -7906,7 +7900,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>23</v>
@@ -7915,7 +7909,7 @@
         <v>24</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>28</v>
@@ -7983,7 +7977,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>23</v>
@@ -7992,7 +7986,7 @@
         <v>24</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>31</v>
@@ -8069,7 +8063,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>23</v>
@@ -8078,7 +8072,7 @@
         <v>24</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>28</v>
@@ -8155,7 +8149,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>23</v>
@@ -8164,7 +8158,7 @@
         <v>24</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>28</v>
@@ -8202,7 +8196,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>23</v>
@@ -8211,10 +8205,10 @@
         <v>24</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>1</v>
@@ -8253,7 +8247,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>1</v>
@@ -8282,7 +8276,7 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>28</v>
@@ -8437,7 +8431,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>23</v>
@@ -8446,7 +8440,7 @@
         <v>24</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>28</v>
@@ -8562,7 +8556,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>23</v>
@@ -8571,7 +8565,7 @@
         <v>24</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>31</v>
@@ -8651,7 +8645,7 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>31</v>
@@ -8728,7 +8722,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>23</v>
@@ -8737,7 +8731,7 @@
         <v>24</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>20</v>
@@ -8775,7 +8769,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>17</v>
@@ -8784,7 +8778,7 @@
         <v>34</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>20</v>
@@ -8828,7 +8822,7 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>20</v>
@@ -8872,7 +8866,7 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>20</v>
@@ -8916,7 +8910,7 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>20</v>
@@ -8957,7 +8951,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>23</v>
@@ -8966,7 +8960,7 @@
         <v>24</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>28</v>
@@ -9046,7 +9040,7 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>28</v>
@@ -9123,7 +9117,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>23</v>
@@ -9132,7 +9126,7 @@
         <v>24</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>28</v>
@@ -9248,7 +9242,7 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>23</v>
@@ -9257,7 +9251,7 @@
         <v>24</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>28</v>
@@ -9295,7 +9289,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>23</v>
@@ -9304,7 +9298,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>28</v>
@@ -9342,7 +9336,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>23</v>
@@ -9351,7 +9345,7 @@
         <v>24</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>28</v>
@@ -9467,7 +9461,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>17</v>
@@ -9476,7 +9470,7 @@
         <v>18</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>20</v>
@@ -9512,12 +9506,12 @@
         <v>0.109151610369207</v>
       </c>
       <c r="P190" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>17</v>
@@ -9526,7 +9520,7 @@
         <v>18</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>20</v>
@@ -9564,7 +9558,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>17</v>
@@ -9573,7 +9567,7 @@
         <v>34</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>28</v>
@@ -9653,7 +9647,7 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>26</v>
@@ -9691,7 +9685,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>23</v>
@@ -9700,10 +9694,10 @@
         <v>24</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>1</v>
@@ -9768,7 +9762,7 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>23</v>
@@ -9777,10 +9771,10 @@
         <v>24</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>1</v>
@@ -9845,7 +9839,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>23</v>
@@ -9854,7 +9848,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>28</v>
@@ -9931,7 +9925,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>17</v>
@@ -9940,7 +9934,7 @@
         <v>34</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>20</v>
@@ -9984,7 +9978,7 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>20</v>
@@ -10028,7 +10022,7 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>20</v>
@@ -10072,7 +10066,7 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>20</v>
@@ -10113,7 +10107,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>23</v>
@@ -10122,7 +10116,7 @@
         <v>24</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>28</v>
@@ -10220,7 +10214,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>23</v>
@@ -10229,7 +10223,7 @@
         <v>24</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>26</v>
@@ -10267,7 +10261,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>23</v>
@@ -10276,10 +10270,10 @@
         <v>24</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>1</v>
@@ -10317,10 +10311,10 @@
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>1</v>
@@ -10358,7 +10352,7 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>28</v>
@@ -10435,7 +10429,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>17</v>
@@ -10444,7 +10438,7 @@
         <v>18</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>20</v>
@@ -10482,7 +10476,7 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>23</v>
@@ -10491,7 +10485,7 @@
         <v>24</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>26</v>
@@ -10529,7 +10523,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>23</v>
@@ -10538,10 +10532,10 @@
         <v>24</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F215" s="0" t="n">
         <v>1</v>
@@ -10576,7 +10570,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>23</v>
@@ -10585,7 +10579,7 @@
         <v>24</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>28</v>
@@ -10692,7 +10686,7 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>23</v>
@@ -10701,7 +10695,7 @@
         <v>24</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>20</v>
@@ -10739,7 +10733,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>23</v>
@@ -10748,7 +10742,7 @@
         <v>24</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>28</v>
@@ -10825,7 +10819,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>17</v>
@@ -10834,7 +10828,7 @@
         <v>34</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>20</v>
@@ -10878,7 +10872,7 @@
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>20</v>
@@ -10922,7 +10916,7 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>20</v>
@@ -10966,7 +10960,7 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>20</v>
@@ -11010,7 +11004,7 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>20</v>
@@ -11054,7 +11048,7 @@
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>20</v>
@@ -11089,7 +11083,7 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>20</v>
@@ -11133,7 +11127,7 @@
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>20</v>
@@ -11174,7 +11168,7 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>17</v>
@@ -11183,10 +11177,10 @@
         <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F230" s="0" t="n">
         <v>1</v>
@@ -11224,10 +11218,10 @@
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F231" s="0" t="n">
         <v>1</v>
@@ -11265,10 +11259,10 @@
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F232" s="0" t="n">
         <v>1</v>
@@ -11306,10 +11300,10 @@
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F233" s="0" t="n">
         <v>1</v>
@@ -11347,10 +11341,10 @@
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>1</v>
@@ -11388,10 +11382,10 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F235" s="0" t="n">
         <v>1</v>
@@ -11429,10 +11423,10 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F236" s="0" t="n">
         <v>1</v>
@@ -11470,10 +11464,10 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F237" s="0" t="n">
         <v>1</v>
@@ -11508,7 +11502,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>23</v>
@@ -11517,7 +11511,7 @@
         <v>24</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>28</v>
@@ -11555,7 +11549,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>17</v>
@@ -11564,7 +11558,7 @@
         <v>34</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>20</v>
@@ -11608,7 +11602,7 @@
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>20</v>
@@ -11652,7 +11646,7 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>20</v>
@@ -11696,7 +11690,7 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>20</v>
@@ -11740,7 +11734,7 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>20</v>
@@ -11781,7 +11775,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>23</v>
@@ -11790,7 +11784,7 @@
         <v>24</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>26</v>
@@ -11828,7 +11822,7 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>17</v>
@@ -11837,7 +11831,7 @@
         <v>34</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>20</v>
@@ -11881,7 +11875,7 @@
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>20</v>
@@ -11922,7 +11916,7 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>17</v>
@@ -11931,10 +11925,10 @@
         <v>34</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F247" s="0" t="n">
         <v>1</v>
@@ -11972,10 +11966,10 @@
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F248" s="0" t="n">
         <v>1</v>
@@ -12008,12 +12002,12 @@
         <v>0.0661822466614297</v>
       </c>
       <c r="P248" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>17</v>
@@ -12022,7 +12016,7 @@
         <v>34</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>20</v>
@@ -12063,10 +12057,10 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F250" s="0" t="n">
         <v>1</v>
@@ -12105,7 +12099,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F251" s="0" t="n">
         <v>1</v>
@@ -12131,7 +12125,7 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>23</v>
@@ -12140,7 +12134,7 @@
         <v>24</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>28</v>
@@ -12217,7 +12211,7 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>23</v>
@@ -12226,7 +12220,7 @@
         <v>24</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>26</v>
@@ -12264,7 +12258,7 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>17</v>
@@ -12273,10 +12267,10 @@
         <v>18</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F255" s="0" t="n">
         <v>1</v>
@@ -12309,7 +12303,7 @@
         <v>3.92772977219167E-005</v>
       </c>
       <c r="P255" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12351,12 +12345,12 @@
         <v>0.444344069128044</v>
       </c>
       <c r="P256" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>23</v>
@@ -12365,7 +12359,7 @@
         <v>24</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>28</v>
@@ -12433,7 +12427,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>23</v>
@@ -12442,7 +12436,7 @@
         <v>24</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>28</v>
@@ -12519,7 +12513,7 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>23</v>
@@ -12528,7 +12522,7 @@
         <v>24</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>26</v>
@@ -12566,7 +12560,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>23</v>
@@ -12575,7 +12569,7 @@
         <v>24</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>28</v>
@@ -12691,7 +12685,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>23</v>
@@ -12700,7 +12694,7 @@
         <v>24</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>26</v>
@@ -12738,7 +12732,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>23</v>
@@ -12747,7 +12741,7 @@
         <v>24</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>28</v>
@@ -12824,7 +12818,7 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>23</v>
@@ -12833,7 +12827,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>29</v>
@@ -12874,7 +12868,7 @@
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>20</v>
@@ -12906,7 +12900,7 @@
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>20</v>
@@ -12944,7 +12938,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>23</v>
@@ -12953,7 +12947,7 @@
         <v>24</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>26</v>
@@ -12991,7 +12985,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>23</v>
@@ -13000,7 +12994,7 @@
         <v>24</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>28</v>
@@ -13036,7 +13030,7 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="P272" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13078,7 +13072,7 @@
         <v>0.518479968578162</v>
       </c>
       <c r="P273" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13111,7 +13105,7 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="P274" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13119,7 +13113,7 @@
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>20</v>
@@ -13155,7 +13149,7 @@
         <v>0.419402985074627</v>
       </c>
       <c r="P275" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13163,7 +13157,7 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>29</v>
@@ -13199,12 +13193,12 @@
         <v>0.0011783189316575</v>
       </c>
       <c r="P276" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>23</v>
@@ -13213,7 +13207,7 @@
         <v>24</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>29</v>
@@ -13290,7 +13284,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>23</v>
@@ -13299,7 +13293,7 @@
         <v>24</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>26</v>
@@ -13337,7 +13331,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>23</v>
@@ -13346,7 +13340,7 @@
         <v>24</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>28</v>
@@ -13462,7 +13456,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>23</v>
@@ -13471,7 +13465,7 @@
         <v>24</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>26</v>
@@ -13509,7 +13503,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>23</v>
@@ -13518,7 +13512,7 @@
         <v>24</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>31</v>
@@ -13586,7 +13580,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>23</v>
@@ -13595,7 +13589,7 @@
         <v>24</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>28</v>
@@ -13732,7 +13726,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>23</v>
@@ -13741,7 +13735,7 @@
         <v>24</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>28</v>
@@ -13848,7 +13842,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>23</v>
@@ -13857,7 +13851,7 @@
         <v>24</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>26</v>
@@ -13895,7 +13889,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>23</v>
@@ -13904,7 +13898,7 @@
         <v>24</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>26</v>
@@ -13942,7 +13936,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>23</v>
@@ -13951,7 +13945,7 @@
         <v>24</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>26</v>
@@ -13989,7 +13983,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>23</v>
@@ -13998,7 +13992,7 @@
         <v>24</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>20</v>
@@ -14040,7 +14034,7 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F297" s="0" t="n">
         <v>1</v>
@@ -14066,7 +14060,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>23</v>
@@ -14075,7 +14069,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>26</v>
@@ -14113,7 +14107,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>17</v>
@@ -14122,7 +14116,7 @@
         <v>34</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>20</v>
@@ -14163,10 +14157,10 @@
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F300" s="0" t="n">
         <v>1</v>
@@ -14243,7 +14237,7 @@
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>20</v>
@@ -14284,7 +14278,7 @@
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>20</v>
@@ -14322,7 +14316,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>23</v>
@@ -14331,7 +14325,7 @@
         <v>24</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>28</v>
@@ -14486,7 +14480,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>23</v>
@@ -14495,7 +14489,7 @@
         <v>24</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>28</v>
@@ -14611,7 +14605,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>23</v>
@@ -14620,7 +14614,7 @@
         <v>24</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>26</v>
@@ -14658,7 +14652,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>17</v>
@@ -14667,7 +14661,7 @@
         <v>34</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>20</v>
@@ -14711,7 +14705,7 @@
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>20</v>
@@ -14752,7 +14746,7 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>23</v>
@@ -14761,7 +14755,7 @@
         <v>24</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>26</v>
@@ -14799,7 +14793,7 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>23</v>
@@ -14808,7 +14802,7 @@
         <v>24</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>26</v>
@@ -14849,7 +14843,7 @@
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>26</v>
@@ -14887,7 +14881,7 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>23</v>
@@ -14896,7 +14890,7 @@
         <v>24</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>26</v>
@@ -14934,7 +14928,7 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>23</v>
@@ -14943,7 +14937,7 @@
         <v>24</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>26</v>
@@ -14981,7 +14975,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>17</v>
@@ -14990,7 +14984,7 @@
         <v>18</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>26</v>
@@ -15026,12 +15020,12 @@
         <v>0.207717989002357</v>
       </c>
       <c r="P319" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>17</v>
@@ -15040,7 +15034,7 @@
         <v>34</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>20</v>
@@ -15084,7 +15078,7 @@
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>20</v>
@@ -15128,7 +15122,7 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>20</v>
@@ -15169,7 +15163,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>17</v>
@@ -15178,7 +15172,7 @@
         <v>34</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>20</v>
@@ -15222,7 +15216,7 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>20</v>
@@ -15266,7 +15260,7 @@
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>20</v>
@@ -15310,7 +15304,7 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>20</v>
@@ -15354,7 +15348,7 @@
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>20</v>
@@ -15398,7 +15392,7 @@
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>20</v>
@@ -15442,7 +15436,7 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>20</v>
@@ -15486,7 +15480,7 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>20</v>
@@ -15530,7 +15524,7 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>20</v>
@@ -15574,7 +15568,7 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>20</v>
@@ -15618,7 +15612,7 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>20</v>
@@ -15662,7 +15656,7 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>20</v>
@@ -15703,7 +15697,7 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>17</v>
@@ -15712,7 +15706,7 @@
         <v>18</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>20</v>
@@ -15750,7 +15744,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>17</v>
@@ -15759,7 +15753,7 @@
         <v>18</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>20</v>
@@ -15797,7 +15791,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>17</v>
@@ -15806,7 +15800,7 @@
         <v>34</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>20</v>
@@ -15847,7 +15841,7 @@
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>20</v>
@@ -15885,7 +15879,7 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>17</v>
@@ -15894,7 +15888,7 @@
         <v>18</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>20</v>
@@ -15932,7 +15926,7 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>17</v>
@@ -15941,10 +15935,10 @@
         <v>34</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F340" s="0" t="n">
         <v>1</v>
@@ -16021,10 +16015,10 @@
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F342" s="0" t="n">
         <v>1</v>
@@ -16089,7 +16083,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>17</v>
@@ -16098,10 +16092,10 @@
         <v>34</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F344" s="0" t="n">
         <v>1</v>
@@ -16179,7 +16173,7 @@
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F346" s="0" t="n">
         <v>1</v>
@@ -16203,7 +16197,7 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="Q346" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16211,7 +16205,7 @@
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>20</v>
@@ -16249,7 +16243,7 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>17</v>
@@ -16258,7 +16252,7 @@
         <v>34</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>20</v>
@@ -16300,7 +16294,7 @@
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F349" s="0" t="n">
         <v>1</v>
@@ -16329,7 +16323,7 @@
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>20</v>
@@ -16367,7 +16361,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>17</v>
@@ -16376,7 +16370,7 @@
         <v>34</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>20</v>
@@ -16417,7 +16411,7 @@
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>20</v>
@@ -16455,7 +16449,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>23</v>
@@ -16464,7 +16458,7 @@
         <v>24</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>31</v>
@@ -16541,7 +16535,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>23</v>
@@ -16550,7 +16544,7 @@
         <v>24</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>28</v>
@@ -16627,7 +16621,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>23</v>
@@ -16636,7 +16630,7 @@
         <v>24</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>29</v>
@@ -16704,7 +16698,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>23</v>
@@ -16713,7 +16707,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>58</v>
@@ -16742,7 +16736,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>17</v>
@@ -16751,7 +16745,7 @@
         <v>18</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>20</v>
@@ -16792,7 +16786,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>17</v>
@@ -16801,7 +16795,7 @@
         <v>34</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>20</v>
@@ -16842,10 +16836,10 @@
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F362" s="0" t="n">
         <v>1</v>
@@ -16923,7 +16917,7 @@
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F364" s="0" t="n">
         <v>0.001</v>
@@ -16947,12 +16941,12 @@
         <v>1.96386488609584E-005</v>
       </c>
       <c r="Q364" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>17</v>
@@ -16961,7 +16955,7 @@
         <v>18</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>20</v>
@@ -16999,7 +16993,7 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>23</v>
@@ -17008,7 +17002,7 @@
         <v>24</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>26</v>
@@ -17046,7 +17040,7 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>23</v>
@@ -17055,7 +17049,7 @@
         <v>24</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>28</v>
@@ -17171,7 +17165,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>23</v>
@@ -17180,7 +17174,7 @@
         <v>24</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>28</v>
@@ -17248,7 +17242,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>23</v>
@@ -17257,7 +17251,7 @@
         <v>24</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>26</v>
@@ -17295,7 +17289,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>17</v>
@@ -17304,7 +17298,7 @@
         <v>34</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>20</v>
@@ -17348,7 +17342,7 @@
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>20</v>
@@ -17392,7 +17386,7 @@
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>20</v>
@@ -17436,7 +17430,7 @@
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>20</v>
@@ -17480,7 +17474,7 @@
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>20</v>
@@ -17521,7 +17515,7 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>17</v>
@@ -17530,7 +17524,7 @@
         <v>18</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>20</v>
@@ -17566,12 +17560,12 @@
         <v>0.0030243519245875</v>
       </c>
       <c r="P378" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>17</v>
@@ -17580,7 +17574,7 @@
         <v>34</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>26</v>
@@ -17616,7 +17610,7 @@
         <v>0.237882953652789</v>
       </c>
       <c r="P379" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17624,7 +17618,7 @@
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>26</v>
@@ -17660,7 +17654,7 @@
         <v>0.004241948153967</v>
       </c>
       <c r="P380" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17668,7 +17662,7 @@
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>26</v>
@@ -17704,21 +17698,21 @@
         <v>0.0390023566378633</v>
       </c>
       <c r="P381" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>20</v>
@@ -17754,12 +17748,12 @@
         <v>0.371818538884525</v>
       </c>
       <c r="P382" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>23</v>
@@ -17768,7 +17762,7 @@
         <v>24</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>28</v>
@@ -17887,7 +17881,7 @@
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>28</v>
@@ -18003,7 +17997,7 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>17</v>
@@ -18012,7 +18006,7 @@
         <v>18</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>20</v>
@@ -18048,12 +18042,12 @@
         <v>0.0014925373134328</v>
       </c>
       <c r="P389" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>17</v>
@@ -18062,7 +18056,7 @@
         <v>18</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>20</v>
@@ -18100,7 +18094,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>17</v>
@@ -18109,10 +18103,10 @@
         <v>18</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F391" s="0" t="n">
         <v>1</v>
@@ -18151,7 +18145,7 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F392" s="0" t="n">
         <v>1</v>
@@ -18177,19 +18171,19 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F393" s="0" t="n">
         <v>1</v>
@@ -18222,7 +18216,7 @@
         <v>0.0005302435192458</v>
       </c>
       <c r="P393" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18264,12 +18258,12 @@
         <v>0.244304791830322</v>
       </c>
       <c r="P394" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>17</v>
@@ -18278,7 +18272,7 @@
         <v>18</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>20</v>
@@ -18319,7 +18313,7 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>23</v>
@@ -18328,7 +18322,7 @@
         <v>24</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>26</v>
@@ -18366,7 +18360,7 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>23</v>
@@ -18375,10 +18369,10 @@
         <v>24</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F397" s="0" t="n">
         <v>1</v>
@@ -18413,7 +18407,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>17</v>
@@ -18422,7 +18416,7 @@
         <v>34</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>20</v>
@@ -18466,10 +18460,10 @@
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F399" s="0" t="n">
         <v>1</v>
@@ -18549,7 +18543,7 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>23</v>
@@ -18558,7 +18552,7 @@
         <v>24</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>31</v>
@@ -18635,7 +18629,7 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>23</v>
@@ -18644,7 +18638,7 @@
         <v>24</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>26</v>
@@ -18682,7 +18676,7 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>17</v>
@@ -18691,7 +18685,7 @@
         <v>34</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>20</v>
@@ -18735,7 +18729,7 @@
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>20</v>
@@ -18770,7 +18764,7 @@
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>20</v>
@@ -18811,7 +18805,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>23</v>
@@ -18820,7 +18814,7 @@
         <v>24</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>28</v>
@@ -18858,7 +18852,7 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>23</v>
@@ -18867,7 +18861,7 @@
         <v>24</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>28</v>
@@ -18905,7 +18899,7 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>23</v>
@@ -18914,7 +18908,7 @@
         <v>24</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>26</v>
@@ -18955,7 +18949,7 @@
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>28</v>
@@ -19032,7 +19026,7 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>17</v>
@@ -19041,7 +19035,7 @@
         <v>34</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>20</v>
@@ -19085,7 +19079,7 @@
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>20</v>
@@ -19129,7 +19123,7 @@
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>20</v>
@@ -19173,7 +19167,7 @@
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>20</v>
@@ -19217,7 +19211,7 @@
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>20</v>
@@ -19261,7 +19255,7 @@
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>20</v>
@@ -19305,7 +19299,7 @@
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>20</v>
@@ -19349,7 +19343,7 @@
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>20</v>
@@ -19393,7 +19387,7 @@
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>20</v>
@@ -19437,7 +19431,7 @@
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>20</v>
@@ -19478,7 +19472,7 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>17</v>
@@ -19487,7 +19481,7 @@
         <v>18</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>20</v>
@@ -19528,7 +19522,7 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>23</v>
@@ -19537,7 +19531,7 @@
         <v>24</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>28</v>
@@ -19614,7 +19608,7 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>23</v>
@@ -19623,7 +19617,7 @@
         <v>24</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>26</v>
@@ -19664,7 +19658,7 @@
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>26</v>
@@ -19702,7 +19696,7 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>17</v>
@@ -19711,7 +19705,7 @@
         <v>18</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>20</v>
@@ -19755,7 +19749,7 @@
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>20</v>
@@ -19799,7 +19793,7 @@
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>20</v>
@@ -19843,7 +19837,7 @@
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>20</v>
@@ -19887,7 +19881,7 @@
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>20</v>
@@ -19928,7 +19922,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>17</v>
@@ -19937,10 +19931,10 @@
         <v>18</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F432" s="0" t="n">
         <v>1</v>
@@ -19975,7 +19969,7 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>17</v>
@@ -19984,10 +19978,10 @@
         <v>18</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F433" s="0" t="n">
         <v>60</v>
@@ -20026,7 +20020,7 @@
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F434" s="0" t="n">
         <v>1</v>
@@ -20064,7 +20058,7 @@
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>20</v>
@@ -20102,7 +20096,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>17</v>
@@ -20111,7 +20105,7 @@
         <v>18</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>20</v>
@@ -20149,7 +20143,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>17</v>
@@ -20158,7 +20152,7 @@
         <v>18</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>20</v>
@@ -20196,7 +20190,7 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>17</v>
@@ -20205,7 +20199,7 @@
         <v>18</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>20</v>
@@ -20243,7 +20237,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>17</v>
@@ -20252,7 +20246,7 @@
         <v>18</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>20</v>
@@ -20290,7 +20284,7 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>23</v>
@@ -20299,7 +20293,7 @@
         <v>24</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>28</v>
@@ -20376,7 +20370,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>23</v>
@@ -20385,7 +20379,7 @@
         <v>24</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>26</v>
@@ -20423,7 +20417,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>23</v>
@@ -20432,7 +20426,7 @@
         <v>24</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>28</v>
@@ -20509,7 +20503,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>23</v>
@@ -20518,7 +20512,7 @@
         <v>24</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>31</v>
@@ -20595,7 +20589,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>17</v>
@@ -20604,7 +20598,7 @@
         <v>34</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>20</v>
@@ -20648,7 +20642,7 @@
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>20</v>
@@ -20689,7 +20683,7 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>23</v>
@@ -20698,7 +20692,7 @@
         <v>24</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>28</v>
@@ -20853,7 +20847,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>17</v>
@@ -20862,10 +20856,10 @@
         <v>18</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F453" s="0" t="n">
         <v>1</v>
@@ -20898,12 +20892,12 @@
         <v>0.0722309505106049</v>
       </c>
       <c r="P453" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>23</v>
@@ -20912,7 +20906,7 @@
         <v>24</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>26</v>
@@ -20950,7 +20944,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>17</v>
@@ -20959,7 +20953,7 @@
         <v>18</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>20</v>
@@ -21000,7 +20994,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>17</v>
@@ -21009,7 +21003,7 @@
         <v>18</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>20</v>
@@ -21050,7 +21044,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>23</v>
@@ -21059,7 +21053,7 @@
         <v>24</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>31</v>
@@ -21127,7 +21121,7 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>17</v>
@@ -21136,7 +21130,7 @@
         <v>34</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>20</v>
@@ -21180,7 +21174,7 @@
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>20</v>
@@ -21224,7 +21218,7 @@
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>20</v>
@@ -21265,7 +21259,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>23</v>
@@ -21274,7 +21268,7 @@
         <v>24</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>28</v>
@@ -21423,7 +21417,7 @@
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>28</v>
@@ -21503,7 +21497,7 @@
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>28</v>
@@ -21541,7 +21535,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>23</v>
@@ -21550,7 +21544,7 @@
         <v>24</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>28</v>
@@ -21660,7 +21654,7 @@
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>28</v>
@@ -21770,7 +21764,7 @@
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>28</v>
@@ -21837,7 +21831,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="483">
+  <mergeCells count="480">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -21962,13 +21956,10 @@
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="C97:C99"/>
     <mergeCell ref="D97:D99"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
     <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
     <mergeCell ref="D106:D107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="B108:B109"/>
